--- a/input/charactersExpandedInfo.xlsx
+++ b/input/charactersExpandedInfo.xlsx
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="699">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Allegiance</t>
+    <t xml:space="preserve">Faction</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -162,9 +162,6 @@
     <t xml:space="preserve">Antaboga</t>
   </si>
   <si>
-    <t xml:space="preserve">Indeterminate</t>
-  </si>
-  <si>
     <t xml:space="preserve">God</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t xml:space="preserve">Banowati</t>
   </si>
   <si>
-    <t xml:space="preserve">Complex</t>
-  </si>
-  <si>
     <t xml:space="preserve">Known as Banumathi, wife of Duryodhana. In the Indian Mahabharata she is depicted as a chaste wife. There is a story where Karna and Banumathi play chess and Banumathi leaves halfway through the game. While Karna tries to reach out his hand to make her continue the game, he accidentally pulls her waist chain and the pearls scatter on the floor. Duryodhana appears at this scene and Karna and Banumati feel embarrased. Duryodhana, instead of suspecting his friend and wife trusts them and this trust is depicted through his act of picking up the pearls of Banumati's waist chain.</t>
   </si>
   <si>
@@ -468,369 +462,363 @@
     <t xml:space="preserve">Satrugna, Kwakwa, Rama, Lesmana</t>
   </si>
   <si>
+    <t xml:space="preserve">Vasudeva, biological father of Lord Krishna. His wife is Devaki, sister of the evil King Kamsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has four wives: Rohini (Baladewa), Dewaki(Kresna), Badrahini(RaraIreng) and Maerah. He fathers Arya Udawa with Ken Sagupi out of wedlock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuntiboja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunti, Bismaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewaki, Mahindra,Badrahini,KenSagupi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kresna,Baladewa,RaraIreng,Bratajaya,Udawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Semar Barang Jantur', 'Kunthi Pilih (Lahiripun Adipati Karna)', 'Basudewa Grogol']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vayudeva, the god of the winds. Father of Bhima and Hanuman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God of the wind. Bestows Kuku Pancanaka onto Werkudara.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Babad Wanamarta', 'Wahyu Makutharama', 'Bandung Nagasewu', 'Dewa Ruci']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bendana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the son of Prabu Arimbaka (king of Pringgandani) and Dewi Hadimba. His siblings include Arima/Hidimba, Arimbi, Brajadentha, Brajalamatan, Brajawikalpa and Kalbendana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Babad Wanamarta', 'Gatotkaca Lahir', 'Wahyu Kembar']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhisma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Grandsire Bhishma, he is the elder son of Shantanu and step son of Satyavati.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He teaches both Pandawa and Korawa. Son of Santanu and Dewi Gangga.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Babad Wanamarta']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbilung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Semar Mantu (alternative version)', 'Brajadhenta Mbalela (Gatotkaca Wisudha)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bisawarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Wibisana in Wahyu Makutharama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Wahyu Makutharama', 'Semar Mantu']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Bhishmaka ruled the kingdom of Vidarbha. He was also against the idea of his daughter Rukmini marrying Lord Krishna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Father of Rukimini.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arya Prabu Rukma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basudewa, Kunti, Ugrasena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Semar Barang Jantur', 'Kunthi Pilih (Lahiripun Adipati Karna)', 'Narayana Kridha Brata', 'Basudewa Grogol']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomanarakasura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesatria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Narakasura. He is born to Vishnu and Bhoomidevi (Goddess of Earth). He is believed to be born during the time where Vishnu to the form of Varaha (Boar) to save Bhoomidevi when she was held captive by the demon Hiranyayaksha. Narakasura is said to have been vanquished by Lord Krishna and his consort Satyabhama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as Asura Naraka.  Son of Kresna (Wisnu) and Pertiwi. Known as Sitija in his youth. After fighting the demon Bomantara, he changes his name and absorbs some of the qualities of his erstwhile enemy. Brother of Siti Sendari. He is killed by Kresna (incarnation of Wisnu). Basudewa dies when Narakasura invades Mandura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asura Naraka, Sitija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SitiSendari, Godhayitma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Wahyu Topeng Waja', 'Semar Mantu (alternative version)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://commons.wikimedia.org/wiki/File:COLLECTIE_TROPENMUSEUM_Wajangfiguur_van_perkament_waarschijnlijk_voorstellende_Bomanarakasura_TMnr_8-240.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brajadhenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is the third son of Prabu Arimbaka (king of Pringgandani) and Dewi Hadimba. His siblings include Arima/Hidimba, Arimbi, Brajamusti, Brajalamatan, Brajawikalpa and Kalbendana. He opposes Gatotkaca becoming king of Pringgandani, and dies in armed conflict against him. His brothers Brajalamatan and Brajawikalpa suffer the same fate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Brajadhenta Mbalela (Gatotkaca Wisudha)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iswara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the nine Gods in the heavens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brajamusthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Hindu mythology, Brahma is seen as the son of Vishnu as he emerges out of his navel seated on a lotus. His consort is Saraswati, goddess of educatio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Batara Guru and Batari Uma. Consort of Dewi Saraswati. God of fire. Teacher of Baladewa (Kakrasana).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Gatotkaca Lahir', 'Sudamala', 'Wisanggeni Lair']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garuda is known as the vehicle of Lord Vishnu. He is known as the son of sage Kashyapa and Vinata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bird of divine origin. Sibling of Bayu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Puntadewa Wisudha', 'Wahyu Makutharama', 'Semar Mantu (alternative version)']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abiyasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known Veda Vyasa in the Indian Mahabharata- Veda Vyasa means the compiler of sacred texts (The Vedas). He was formerly known as Krishna Dwaipanya and was born to Satyavati and sage Parasara. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writer of Mahabharata. Father of Drestarastra with Ambika. His mother is Durandini. He is asked to mary Ambika and Ambalika, the widows of Citrawirya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biyasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Babad Wanamarta', 'Kunthi Pilih (Lahiripun Adipati Karna)', 'Narayana Kridha Brata', 'Brajadhenta Mbalela (Gatotkaca Wisudha)', 'Bandung Nagasewu', 'Dewa Ruci']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrarata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renuka Devi is said to have admired a gandharva who passed by while she was fetching water from the river. As a result she lost the powers she had gained by being a chaste wife.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewi Renuka falls in love with him, even though she was already amrreied to Maharesi Jamadagni. He is finally killed by Rama Bargawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Sudamala']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrasena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabu, Batara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitrasena is a gandharva who is cursed by Lord Krishna when he accidentaly desecrates the abulations that a sage was making to the Sun God. He saved by Arjuna in the end.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He leaves in Indraloka and teaches Arjuna to sing and dance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daryamaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Described as a brother of Nindyamaya (Werkudara) in Suksma Langgeng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Sukma Langgeng']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desamuka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dasamukha is another name for Ravana in the Ramayana. It means "10 faces".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destarastra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Dhristirashtra born to Ambika one of the queens to Vichitraveerya. It is to be noted that due to Vichitraveerya passing away before having any children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son of Abyasa. Blind since birth. Son of Ambika. Has two brothers: Pandu and Widura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DewaRuci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is he Wenang?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marbudengrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Dewa Ruci']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dewaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known as Devaki, the princess of Mathura. After her marriage with Vasudeva, the aakashavani (divine prophecy from the skies) announces that Kamsa (her brother) will die at the hands of her eight child. Upon hearing this, Kamsa imprisons both Devaki and Vasudewa and kills every child born to them. He is, however unsuccessful in killing the 7th and 8th child of the couple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Kresna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhadhungawuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DityaKala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tyrant that oppresses the kings of the 100 kingdoms in the Semar Mantu story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Semar Mantu']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhamdharat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senopati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King of Guwa Siluman who tries to help the Korawa kill Puntadewa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Puntadewa Wisudha']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhandhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Demon, younger brother of queen Prabu Kencana Wulan who helps Puntadewa escpae an assasination attempt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Puntadewa Wisudha', 'Brajadhenta Mbalela (Gatotkaca Wisudha)', 'Wahyu Kaprawiran', 'Bandung Nagasewu', 'Dewa Ruci', 'Sudamala', ' Wahyu Cakraningrat', 'Wisanggeni Lair']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhandhonwacana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as JIM DANDUNWACANA. Mretani (Amarta) Jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dersanala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Wisanggeni with Arjuna. Daughter of Brama. Daughter of Brahma. Brahma wants her to marry Dewa Srani.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisanggeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drestarastra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ancestor</t>
   </si>
   <si>
-    <t xml:space="preserve">Vasudeva, biological father of Lord Krishna. His wife is Devaki, sister of the evil King Kamsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has four wives: Rohini (Baladewa), Dewaki(Kresna), Badrahini(RaraIreng) and Maerah. He fathers Arya Udawa with Ken Sagupi out of wedlock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuntiboja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunti, Bismaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewaki, Mahindra,Badrahini,KenSagupi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kresna,Baladewa,RaraIreng,Bratajaya,Udawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Semar Barang Jantur', 'Kunthi Pilih (Lahiripun Adipati Karna)', 'Basudewa Grogol']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vayudeva, the god of the winds. Father of Bhima and Hanuman.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God of the wind. Bestows Kuku Pancanaka onto Werkudara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Babad Wanamarta', 'Wahyu Makutharama', 'Bandung Nagasewu', 'Dewa Ruci']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bendana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the son of Prabu Arimbaka (king of Pringgandani) and Dewi Hadimba. His siblings include Arima/Hidimba, Arimbi, Brajadentha, Brajalamatan, Brajawikalpa and Kalbendana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Babad Wanamarta', 'Gatotkaca Lahir', 'Wahyu Kembar']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhisma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Grandsire Bhishma, he is the elder son of Shantanu and step son of Satyavati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He teaches both Pandawa and Korawa. Son of Santanu and Dewi Gangga.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Babad Wanamarta']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbilung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Semar Mantu (alternative version)', 'Brajadhenta Mbalela (Gatotkaca Wisudha)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bisawarna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Wibisana in Wahyu Makutharama.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Wahyu Makutharama', 'Semar Mantu']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bismaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Bhishmaka ruled the kingdom of Vidarbha. He was also against the idea of his daughter Rukmini marrying Lord Krishna.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Father of Rukimini.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arya Prabu Rukma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basudewa, Kunti, Ugrasena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Semar Barang Jantur', 'Kunthi Pilih (Lahiripun Adipati Karna)', 'Narayana Kridha Brata', 'Basudewa Grogol']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomanarakasura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kesatria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Narakasura. He is born to Vishnu and Bhoomidevi (Goddess of Earth). He is believed to be born during the time where Vishnu to the form of Varaha (Boar) to save Bhoomidevi when she was held captive by the demon Hiranyayaksha. Narakasura is said to have been vanquished by Lord Krishna and his consort Satyabhama.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as Asura Naraka.  Son of Kresna (Wisnu) and Pertiwi. Known as Sitija in his youth. After fighting the demon Bomantara, he changes his name and absorbs some of the qualities of his erstwhile enemy. Brother of Siti Sendari. He is killed by Kresna (incarnation of Wisnu). Basudewa dies when Narakasura invades Mandura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asura Naraka, Sitija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SitiSendari, Godhayitma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Wahyu Topeng Waja', 'Semar Mantu (alternative version)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://commons.wikimedia.org/wiki/File:COLLECTIE_TROPENMUSEUM_Wajangfiguur_van_perkament_waarschijnlijk_voorstellende_Bomanarakasura_TMnr_8-240.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brajadhenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is the third son of Prabu Arimbaka (king of Pringgandani) and Dewi Hadimba. His siblings include Arima/Hidimba, Arimbi, Brajamusti, Brajalamatan, Brajawikalpa and Kalbendana. He opposes Gatotkaca becoming king of Pringgandani, and dies in armed conflict against him. His brothers Brajalamatan and Brajawikalpa suffer the same fate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Brajadhenta Mbalela (Gatotkaca Wisudha)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iswara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the nine Gods in the heavens.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brajamusthi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brahma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Hindu mythology, Brahma is seen as the son of Vishnu as he emerges out of his navel seated on a lotus. His consort is Saraswati, goddess of educatio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Batara Guru and Batari Uma. Consort of Dewi Saraswati. God of fire. Teacher of Baladewa (Kakrasana).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Gatotkaca Lahir', 'Sudamala', 'Wisanggeni Lair']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garuda is known as the vehicle of Lord Vishnu. He is known as the son of sage Kashyapa and Vinata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A bird of divine origin. Sibling of Bayu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Puntadewa Wisudha', 'Wahyu Makutharama', 'Semar Mantu (alternative version)']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abiyasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known Veda Vyasa in the Indian Mahabharata- Veda Vyasa means the compiler of sacred texts (The Vedas). He was formerly known as Krishna Dwaipanya and was born to Satyavati and sage Parasara. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Writer of Mahabharata. Father of Drestarastra with Ambika. His mother is Durandini. He is asked to mary Ambika and Ambalika, the widows of Citrawirya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biyasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Babad Wanamarta', 'Kunthi Pilih (Lahiripun Adipati Karna)', 'Narayana Kridha Brata', 'Brajadhenta Mbalela (Gatotkaca Wisudha)', 'Bandung Nagasewu', 'Dewa Ruci']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrarata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renuka Devi is said to have admired a gandharva who passed by while she was fetching water from the river. As a result she lost the powers she had gained by being a chaste wife.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewi Renuka falls in love with him, even though she was already amrreied to Maharesi Jamadagni. He is finally killed by Rama Bargawa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Sudamala']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrasena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prabu, Batara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chitrasena is a gandharva who is cursed by Lord Krishna when he accidentaly desecrates the abulations that a sage was making to the Sun God. He saved by Arjuna in the end.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He leaves in Indraloka and teaches Arjuna to sing and dance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daryamaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carangan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Described as a brother of Nindyamaya (Werkudara) in Suksma Langgeng.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Sukma Langgeng']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desamuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramayana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dasamukha is another name for Ravana in the Ramayana. It means "10 faces".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destarastra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Dhristirashtra born to Ambika one of the queens to Vichitraveerya. It is to be noted that due to Vichitraveerya passing away before having any children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Son of Abyasa. Blind since birth. Son of Ambika. Has two brothers: Pandu and Widura.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DewaRuci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is he Wenang?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marbudengrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Dewa Ruci']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dewaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Known as Devaki, the princess of Mathura. After her marriage with Vasudeva, the aakashavani (divine prophecy from the skies) announces that Kamsa (her brother) will die at the hands of her eight child. Upon hearing this, Kamsa imprisons both Devaki and Vasudewa and kills every child born to them. He is, however unsuccessful in killing the 7th and 8th child of the couple.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Kresna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhadhungawuk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DityaKala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tyrant that oppresses the kings of the 100 kingdoms in the Semar Mantu story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Semar Mantu']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhamdharat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senopati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King of Guwa Siluman who tries to help the Korawa kill Puntadewa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Puntadewa Wisudha']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhandhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Demon, younger brother of queen Prabu Kencana Wulan who helps Puntadewa escpae an assasination attempt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">['Puntadewa Wisudha', 'Brajadhenta Mbalela (Gatotkaca Wisudha)', 'Wahyu Kaprawiran', 'Bandung Nagasewu', 'Dewa Ruci', 'Sudamala', ' Wahyu Cakraningrat', 'Wisanggeni Lair']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhandhonwacana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as JIM DANDUNWACANA. Mretani (Amarta) Jim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dersanala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother of Wisanggeni with Arjuna. Daughter of Brama. Daughter of Brahma. Brahma wants her to marry Dewa Srani.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisanggeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drestarastra</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dhirtirashtra is the biological son of Veda Vyasa and Ambika. It is said that when Ambika saw Veda Vyasa, she was afraid by his appearance that she closed her eyes causing Dhirtirashtra to be born blind. He ruled as the King of Hastinapur as Pandu gives up his crown and retires to the forest with his wives due to the feeling of devastation upon receiving a curse from a sage.</t>
   </si>
   <si>
@@ -997,9 +985,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gendari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korawa?</t>
   </si>
   <si>
     <t xml:space="preserve">Gandhari is the princess of Gandhar and the daughter of King Subala. Sakuni is her brother. She is the wife of Dhirtirashtra and mother of the kauravas. Her act of blindfolding her eyes in response to her husband's blindness is regarded as the sign of her chasteness and love towards her huband.</t>
@@ -2370,29 +2355,29 @@
   <dimension ref="A1:Z65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A143" activeCellId="0" sqref="A143"/>
-      <selection pane="bottomRight" activeCell="E163" activeCellId="0" sqref="E163"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2024291497976"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4696356275304"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2631578947368"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9352226720648"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.90688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="82.6963562753036"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.2226720647773"/>
-    <col collapsed="false" hidden="false" max="15" min="9" style="0" width="16.6234817813765"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.6234817813765"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="16.9676113360324"/>
-    <col collapsed="false" hidden="false" max="26" min="21" style="0" width="16.6234817813765"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.5101214574899"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8218623481781"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8259109311741"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.9068825910931"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="95.7206477732793"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.7894736842105"/>
+    <col collapsed="false" hidden="false" max="15" min="9" style="0" width="19.1943319838057"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.1943319838057"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="19.6234817813765"/>
+    <col collapsed="false" hidden="false" max="26" min="21" style="0" width="19.1943319838057"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="17.8259109311741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,9 +2505,7 @@
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2569,9 +2552,7 @@
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2620,23 +2601,21 @@
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
@@ -2647,14 +2626,14 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>54</v>
       </c>
       <c r="T5" s="0" t="n">
         <f aca="false">R5-S5</f>
@@ -2669,28 +2648,26 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>2</v>
@@ -2699,19 +2676,19 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="T6" s="0" t="n">
         <f aca="false">R6-S6</f>
@@ -2726,7 +2703,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -2738,11 +2715,11 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1"/>
@@ -2753,14 +2730,14 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="T7" s="0" t="n">
         <f aca="false">R7-S7</f>
@@ -2775,7 +2752,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
@@ -2787,11 +2764,11 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1"/>
@@ -2802,14 +2779,14 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="0" t="n">
         <f aca="false">R8-S8</f>
@@ -2824,25 +2801,23 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1"/>
@@ -2853,14 +2828,14 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T9" s="0" t="n">
         <f aca="false">R9-S9</f>
@@ -2875,7 +2850,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
@@ -2890,13 +2865,13 @@
         <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>5</v>
@@ -2908,14 +2883,14 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" s="0" t="s">
         <v>83</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>84</v>
       </c>
       <c r="T10" s="0" t="n">
         <f aca="false">R10-S10</f>
@@ -2930,49 +2905,47 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="T11" s="0" t="n">
         <f aca="false">R11-S11</f>
@@ -2987,53 +2960,51 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T12" s="0" t="n">
         <f aca="false">R12-S12</f>
@@ -3048,25 +3019,23 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1"/>
@@ -3077,14 +3046,14 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T13" s="0" t="n">
         <f aca="false">R13-S13</f>
@@ -3099,25 +3068,25 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
@@ -3128,14 +3097,14 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S14" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="T14" s="0" t="n">
         <f aca="false">R14-S14</f>
@@ -3150,25 +3119,23 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
@@ -3179,14 +3146,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T15" s="0" t="n">
         <f aca="false">R15-S15</f>
@@ -3201,53 +3168,51 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>128</v>
       </c>
       <c r="T16" s="0" t="n">
         <f aca="false">R16-S16</f>
@@ -3262,25 +3227,23 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
@@ -3291,14 +3254,14 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T17" s="0" t="n">
         <f aca="false">R17-S17</f>
@@ -3313,25 +3276,23 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
@@ -3342,14 +3303,14 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T18" s="0" t="n">
         <f aca="false">R18-S18</f>
@@ -3364,49 +3325,49 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="T19" s="0" t="n">
         <f aca="false">R19-S19</f>
@@ -3421,25 +3382,23 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3" t="n">
@@ -3447,27 +3406,27 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T20" s="0" t="n">
         <f aca="false">R20-S20</f>
@@ -3482,23 +3441,23 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="1"/>
@@ -3509,14 +3468,14 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="0" t="s">
         <v>36</v>
       </c>
       <c r="S21" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="T21" s="0" t="n">
         <f aca="false">R21-S21</f>
@@ -3531,23 +3490,23 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
@@ -3558,14 +3517,14 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T22" s="0" t="n">
         <f aca="false">R22-S22</f>
@@ -3580,25 +3539,23 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
@@ -3609,14 +3566,14 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S23" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T23" s="0" t="n">
         <f aca="false">R23-S23</f>
@@ -3631,24 +3588,26 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3658,14 +3617,14 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S24" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T24" s="0" t="n">
         <f aca="false">R24-S24</f>
@@ -3680,7 +3639,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -3688,11 +3647,11 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
@@ -3703,14 +3662,14 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="0" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T25" s="0" t="n">
         <f aca="false">R25-S25</f>
@@ -3725,7 +3684,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -3736,38 +3695,38 @@
         <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="T26" s="0" t="n">
         <f aca="false">R26-S26</f>
@@ -3782,51 +3741,51 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="0" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S27" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T27" s="0" t="n">
         <f aca="false">R27-S27</f>
@@ -3841,21 +3800,21 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
@@ -3866,14 +3825,14 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T28" s="0" t="n">
         <f aca="false">R28-S28</f>
@@ -3888,11 +3847,11 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="3" t="s">
@@ -3900,7 +3859,7 @@
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
@@ -3933,21 +3892,21 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
@@ -3958,14 +3917,14 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T30" s="0" t="n">
         <f aca="false">R30-S30</f>
@@ -3980,21 +3939,21 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
@@ -4005,14 +3964,14 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S31" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="T31" s="0" t="n">
         <f aca="false">R31-S31</f>
@@ -4027,11 +3986,9 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>38</v>
       </c>
@@ -4040,10 +3997,10 @@
         <v>24</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
@@ -4054,14 +4011,14 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T32" s="0" t="n">
         <f aca="false">R32-S32</f>
@@ -4076,26 +4033,26 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -4105,14 +4062,14 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="0" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="T33" s="0" t="n">
         <f aca="false">R33-S33</f>
@@ -4127,7 +4084,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
@@ -4138,10 +4095,10 @@
         <v>24</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
@@ -4152,14 +4109,14 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S34" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T34" s="0" t="n">
         <f aca="false">R34-S34</f>
@@ -4174,23 +4131,23 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
@@ -4201,14 +4158,14 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S35" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T35" s="0" t="n">
         <f aca="false">R35-S35</f>
@@ -4223,23 +4180,21 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
@@ -4250,7 +4205,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="T36" s="0" t="n">
@@ -4266,20 +4221,18 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -4291,7 +4244,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="0" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="T37" s="0" t="n">
@@ -4307,7 +4260,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
@@ -4318,10 +4271,10 @@
         <v>24</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
@@ -4332,14 +4285,14 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T38" s="0" t="n">
         <f aca="false">R38-S38</f>
@@ -4354,24 +4307,24 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -4381,14 +4334,14 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="0" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S39" s="0" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="T39" s="0" t="n">
         <f aca="false">R39-S39</f>
@@ -4403,7 +4356,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
@@ -4414,10 +4367,10 @@
         <v>24</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="1"/>
@@ -4425,21 +4378,21 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T40" s="0" t="n">
         <f aca="false">R40-S40</f>
@@ -4454,23 +4407,23 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
@@ -4481,14 +4434,14 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T41" s="0" t="n">
         <f aca="false">R41-S41</f>
@@ -4503,23 +4456,23 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
@@ -4530,14 +4483,14 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T42" s="0" t="n">
         <f aca="false">R42-S42</f>
@@ -4552,21 +4505,21 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
@@ -4577,14 +4530,14 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="0" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T43" s="0" t="n">
         <f aca="false">R43-S43</f>
@@ -4599,21 +4552,21 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
@@ -4624,14 +4577,14 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T44" s="0" t="n">
         <f aca="false">R44-S44</f>
@@ -4646,45 +4599,45 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S45" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T45" s="0" t="n">
         <f aca="false">R45-S45</f>
@@ -4699,23 +4652,25 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
@@ -4726,14 +4681,14 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T46" s="0" t="n">
         <f aca="false">R46-S46</f>
@@ -4748,19 +4703,19 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
@@ -4771,14 +4726,14 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T47" s="0" t="n">
         <f aca="false">R47-S47</f>
@@ -4793,25 +4748,23 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
@@ -4822,14 +4775,14 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T48" s="0" t="n">
         <f aca="false">R48-S48</f>
@@ -4844,23 +4797,23 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
@@ -4871,14 +4824,14 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S49" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T49" s="0" t="n">
         <f aca="false">R49-S49</f>
@@ -4893,26 +4846,26 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -4922,14 +4875,14 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="0" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="0" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S50" s="0" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="T50" s="0" t="n">
         <f aca="false">R50-S50</f>
@@ -4944,25 +4897,25 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
@@ -4973,14 +4926,14 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="0" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S51" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="T51" s="0" t="n">
         <f aca="false">R51-S51</f>
@@ -4995,25 +4948,25 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
@@ -5024,14 +4977,14 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="0" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="0" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S52" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="T52" s="0" t="n">
         <f aca="false">R52-S52</f>
@@ -5046,19 +4999,19 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
@@ -5091,19 +5044,19 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
@@ -5136,51 +5089,51 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="3" t="n">
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S55" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T55" s="0" t="n">
         <f aca="false">R55-S55</f>
@@ -5195,23 +5148,21 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
@@ -5222,14 +5173,14 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T56" s="0" t="n">
         <f aca="false">R56-S56</f>
@@ -5244,23 +5195,25 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>310</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="1"/>
@@ -5271,14 +5224,14 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="S57" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="S57" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="T57" s="0" t="n">
         <f aca="false">R57-S57</f>
@@ -5293,7 +5246,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
@@ -5308,13 +5261,13 @@
         <v>24</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -5324,14 +5277,14 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S58" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="T58" s="0" t="n">
         <f aca="false">R58-S58</f>
@@ -5346,23 +5299,23 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
@@ -5373,14 +5326,14 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S59" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T59" s="0" t="n">
         <f aca="false">R59-S59</f>
@@ -5395,25 +5348,25 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
@@ -5424,14 +5377,14 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="0" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S60" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T60" s="0" t="n">
         <f aca="false">R60-S60</f>
@@ -5446,21 +5399,21 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
@@ -5471,14 +5424,14 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="0" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S61" s="0" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="T61" s="0" t="n">
         <f aca="false">R61-S61</f>
@@ -5493,23 +5446,23 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1"/>
@@ -5520,14 +5473,14 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S62" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="T62" s="0" t="n">
         <f aca="false">R62-S62</f>
@@ -5542,26 +5495,26 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -5571,14 +5524,14 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="0" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="0" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S63" s="0" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="T63" s="0" t="n">
         <f aca="false">R63-S63</f>
@@ -5593,19 +5546,19 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
@@ -5638,23 +5591,23 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
@@ -5665,14 +5618,14 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S65" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T65" s="0" t="n">
         <f aca="false">R65-S65</f>
@@ -5687,23 +5640,23 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
@@ -5714,14 +5667,14 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="0" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="0" t="s">
         <v>44</v>
       </c>
       <c r="S66" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T66" s="0" t="n">
         <f aca="false">R66-S66</f>
@@ -5736,23 +5689,23 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
@@ -5763,14 +5716,14 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S67" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="T67" s="0" t="n">
         <f aca="false">R67-S67</f>
@@ -5785,23 +5738,23 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
@@ -5812,14 +5765,14 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="0" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S68" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T68" s="0" t="n">
         <f aca="false">R68-S68</f>
@@ -5834,11 +5787,11 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
@@ -5846,7 +5799,7 @@
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
@@ -5857,14 +5810,14 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T69" s="0" t="n">
         <f aca="false">R69-S69</f>
@@ -5879,23 +5832,21 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
@@ -5906,14 +5857,14 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T70" s="0" t="n">
         <f aca="false">R70-S70</f>
@@ -5928,23 +5879,23 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
@@ -5955,14 +5906,14 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="0" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S71" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T71" s="0" t="n">
         <f aca="false">R71-S71</f>
@@ -5977,7 +5928,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
@@ -5988,36 +5939,36 @@
         <v>24</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="I72" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S72" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="T72" s="0" t="n">
         <f aca="false">R72-S72</f>
@@ -6032,55 +5983,53 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="I73" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="0" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="S73" s="0" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="T73" s="0" t="n">
         <f aca="false">R73-S73</f>
@@ -6095,23 +6044,23 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="1"/>
@@ -6122,14 +6071,14 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="0" t="s">
         <v>43</v>
       </c>
       <c r="S74" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="T74" s="0" t="n">
         <f aca="false">R74-S74</f>
@@ -6144,43 +6093,43 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q75" s="1"/>
       <c r="R75" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S75" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T75" s="0" t="n">
         <f aca="false">R75-S75</f>
@@ -6195,23 +6144,23 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="1"/>
@@ -6222,14 +6171,14 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T76" s="0" t="n">
         <f aca="false">R76-S76</f>
@@ -6244,21 +6193,21 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="1"/>
@@ -6269,11 +6218,11 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q77" s="1"/>
       <c r="S77" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T77" s="0" t="n">
         <f aca="false">R77-S77</f>
@@ -6288,19 +6237,19 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H78" s="2"/>
       <c r="I78" s="3"/>
@@ -6333,53 +6282,53 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I79" s="3" t="n">
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q79" s="1"/>
       <c r="R79" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T79" s="0" t="n">
         <f aca="false">R79-S79</f>
@@ -6394,23 +6343,21 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="1"/>
@@ -6421,14 +6368,14 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S80" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T80" s="0" t="n">
         <f aca="false">R80-S80</f>
@@ -6443,10 +6390,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>22</v>
@@ -6456,13 +6403,13 @@
         <v>24</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I81" s="3" t="n">
         <v>2</v>
@@ -6474,14 +6421,14 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="0" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q81" s="1"/>
       <c r="R81" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S81" s="0" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="T81" s="0" t="n">
         <f aca="false">R81-S81</f>
@@ -6496,26 +6443,26 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I82" s="3" t="n">
         <v>2</v>
@@ -6525,18 +6472,18 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q82" s="1"/>
       <c r="R82" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S82" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T82" s="0" t="n">
         <f aca="false">R82-S82</f>
@@ -6551,23 +6498,23 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H83" s="2"/>
       <c r="I83" s="3" t="n">
@@ -6578,20 +6525,20 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q83" s="1"/>
       <c r="R83" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T83" s="0" t="n">
         <f aca="false">R83-S83</f>
@@ -6606,28 +6553,28 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="I84" s="3" t="n">
         <v>2</v>
@@ -6639,14 +6586,14 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="0" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="0" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="S84" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T84" s="0" t="n">
         <f aca="false">R84-S84</f>
@@ -6661,7 +6608,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
@@ -6672,10 +6619,10 @@
         <v>24</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H85" s="2"/>
       <c r="I85" s="1"/>
@@ -6686,14 +6633,14 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S85" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="S85" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="T85" s="0" t="n">
         <f aca="false">R85-S85</f>
@@ -6708,25 +6655,25 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H86" s="2"/>
       <c r="I86" s="1"/>
@@ -6737,14 +6684,14 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S86" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T86" s="0" t="n">
         <f aca="false">R86-S86</f>
@@ -6759,21 +6706,21 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E87" s="1"/>
       <c r="G87" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I87" s="3" t="n">
         <v>4</v>
@@ -6785,14 +6732,14 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q87" s="1"/>
       <c r="R87" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S87" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T87" s="0" t="n">
         <f aca="false">R87-S87</f>
@@ -6807,26 +6754,26 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -6834,18 +6781,18 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q88" s="1"/>
       <c r="R88" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S88" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T88" s="0" t="n">
         <f aca="false">R88-S88</f>
@@ -6860,23 +6807,23 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H89" s="2"/>
       <c r="I89" s="1"/>
@@ -6887,14 +6834,14 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="0" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="S89" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T89" s="0" t="n">
         <f aca="false">R89-S89</f>
@@ -6909,23 +6856,23 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H90" s="2"/>
       <c r="I90" s="1"/>
@@ -6936,14 +6883,14 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="0" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S90" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T90" s="0" t="n">
         <f aca="false">R90-S90</f>
@@ -6958,21 +6905,21 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H91" s="2"/>
       <c r="I91" s="1"/>
@@ -6983,14 +6930,14 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="0" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S91" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T91" s="0" t="n">
         <f aca="false">R91-S91</f>
@@ -7005,7 +6952,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>21</v>
@@ -7018,10 +6965,10 @@
         <v>24</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="1"/>
@@ -7032,14 +6979,14 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="0" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q92" s="1"/>
       <c r="R92" s="0" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="S92" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T92" s="0" t="n">
         <f aca="false">R92-S92</f>
@@ -7054,23 +7001,23 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="1"/>
@@ -7081,14 +7028,14 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="0" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="0" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="S93" s="0" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="T93" s="0" t="n">
         <f aca="false">R93-S93</f>
@@ -7103,7 +7050,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
@@ -7114,10 +7061,10 @@
         <v>24</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="1"/>
@@ -7128,14 +7075,14 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="0" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S94" s="0" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="T94" s="0" t="n">
         <f aca="false">R94-S94</f>
@@ -7150,21 +7097,21 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H95" s="2"/>
       <c r="I95" s="1"/>
@@ -7175,14 +7122,14 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S95" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T95" s="0" t="n">
         <f aca="false">R95-S95</f>
@@ -7197,23 +7144,23 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H96" s="2"/>
       <c r="I96" s="1"/>
@@ -7224,14 +7171,14 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S96" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T96" s="0" t="n">
         <f aca="false">R96-S96</f>
@@ -7246,7 +7193,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>21</v>
@@ -7256,13 +7203,13 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="1"/>
@@ -7273,14 +7220,14 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S97" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T97" s="0" t="n">
         <f aca="false">R97-S97</f>
@@ -7295,25 +7242,25 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H98" s="2"/>
       <c r="I98" s="1"/>
@@ -7324,14 +7271,14 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="0" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S98" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T98" s="0" t="n">
         <f aca="false">R98-S98</f>
@@ -7346,23 +7293,23 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H99" s="2"/>
       <c r="I99" s="1"/>
@@ -7373,14 +7320,14 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="0" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="0" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="S99" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="T99" s="0" t="n">
         <f aca="false">R99-S99</f>
@@ -7395,23 +7342,23 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H100" s="2"/>
       <c r="I100" s="1"/>
@@ -7422,14 +7369,14 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q100" s="1"/>
       <c r="R100" s="0" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="S100" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="T100" s="0" t="n">
         <f aca="false">R100-S100</f>
@@ -7444,20 +7391,22 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B101" s="1"/>
+        <v>476</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -7469,14 +7418,14 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="0" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="0" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="S101" s="0" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="T101" s="0" t="n">
         <f aca="false">R101-S101</f>
@@ -7491,23 +7440,23 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="1"/>
@@ -7518,14 +7467,14 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q102" s="1"/>
       <c r="R102" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S102" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T102" s="0" t="n">
         <f aca="false">R102-S102</f>
@@ -7540,23 +7489,23 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="1"/>
@@ -7589,11 +7538,9 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
         <v>22</v>
       </c>
@@ -7602,10 +7549,10 @@
         <v>24</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="1"/>
@@ -7616,14 +7563,14 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S104" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T104" s="0" t="n">
         <f aca="false">R104-S104</f>
@@ -7638,43 +7585,43 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="1"/>
       <c r="J105" s="3" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T105" s="0" t="n">
         <f aca="false">R105-S105</f>
@@ -7689,23 +7636,23 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="1"/>
@@ -7716,14 +7663,14 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S106" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T106" s="0" t="n">
         <f aca="false">R106-S106</f>
@@ -7738,23 +7685,21 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="1"/>
@@ -7765,14 +7710,14 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="0" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="0" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="S107" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="T107" s="0" t="n">
         <f aca="false">R107-S107</f>
@@ -7787,23 +7732,21 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="1"/>
@@ -7814,14 +7757,14 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
       <c r="P108" s="0" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="0" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="S108" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="T108" s="0" t="n">
         <f aca="false">R108-S108</f>
@@ -7836,7 +7779,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>21</v>
@@ -7849,10 +7792,10 @@
         <v>24</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="1"/>
@@ -7863,14 +7806,14 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
       <c r="P109" s="0" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="0" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="T109" s="0" t="n">
         <f aca="false">R109-S109</f>
@@ -7885,11 +7828,9 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
         <v>22</v>
       </c>
@@ -7898,13 +7839,13 @@
         <v>24</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I110" s="3" t="n">
         <v>2</v>
@@ -7916,14 +7857,14 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="0" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S110" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="S110" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="T110" s="0" t="n">
         <f aca="false">R110-S110</f>
@@ -7938,7 +7879,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
@@ -7949,10 +7890,10 @@
         <v>24</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="1"/>
@@ -7963,14 +7904,14 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
       <c r="P111" s="0" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="T111" s="0" t="n">
         <f aca="false">R111-S111</f>
@@ -7985,7 +7926,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
@@ -7995,13 +7936,13 @@
         <v>32</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="1"/>
@@ -8034,23 +7975,23 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="1"/>
@@ -8061,14 +8002,14 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
       <c r="P113" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S113" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T113" s="0" t="n">
         <f aca="false">R113-S113</f>
@@ -8083,55 +8024,53 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="I114" s="3" t="n">
         <v>3</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
       <c r="P114" s="0" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="0" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="S114" s="0" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="T114" s="0" t="n">
         <f aca="false">R114-S114</f>
@@ -8146,21 +8085,21 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="1"/>
@@ -8171,14 +8110,14 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="0" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="0" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="S115" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T115" s="0" t="n">
         <f aca="false">R115-S115</f>
@@ -8197,19 +8136,19 @@
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="1"/>
@@ -8220,14 +8159,14 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S116" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T116" s="0" t="n">
         <f aca="false">R116-S116</f>
@@ -8242,7 +8181,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="3" t="s">
@@ -8254,7 +8193,7 @@
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="1"/>
@@ -8263,18 +8202,18 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O117" s="1"/>
       <c r="P117" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S117" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="T117" s="0" t="n">
         <f aca="false">R117-S117</f>
@@ -8289,7 +8228,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
@@ -8300,10 +8239,10 @@
         <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="1"/>
@@ -8314,14 +8253,14 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
       <c r="P118" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S118" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T118" s="0" t="n">
         <f aca="false">R118-S118</f>
@@ -8336,23 +8275,23 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="1"/>
@@ -8363,14 +8302,14 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
       <c r="P119" s="0" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="0" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="S119" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T119" s="0" t="n">
         <f aca="false">R119-S119</f>
@@ -8385,21 +8324,21 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="E120" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="1"/>
@@ -8410,14 +8349,14 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="0" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S120" s="0" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="T120" s="0" t="n">
         <f aca="false">R120-S120</f>
@@ -8432,7 +8371,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>21</v>
@@ -8445,10 +8384,10 @@
         <v>24</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H121" s="2"/>
       <c r="I121" s="1"/>
@@ -8459,14 +8398,14 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="0" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="0" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="S121" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T121" s="0" t="n">
         <f aca="false">R121-S121</f>
@@ -8481,53 +8420,51 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="O122" s="1"/>
       <c r="P122" s="0" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S122" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T122" s="0" t="n">
         <f aca="false">R122-S122</f>
@@ -8542,19 +8479,19 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="1"/>
@@ -8587,7 +8524,7 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
@@ -8598,10 +8535,10 @@
         <v>24</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="1"/>
@@ -8612,14 +8549,14 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
       <c r="P124" s="0" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="0" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="S124" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T124" s="0" t="n">
         <f aca="false">R124-S124</f>
@@ -8634,23 +8571,23 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="1"/>
@@ -8661,7 +8598,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
       <c r="P125" s="0" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="0" t="s">
@@ -8683,21 +8620,21 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="1"/>
@@ -8708,14 +8645,14 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
       <c r="P126" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S126" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T126" s="0" t="n">
         <f aca="false">R126-S126</f>
@@ -8730,11 +8667,9 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
         <v>22</v>
       </c>
@@ -8743,10 +8678,10 @@
         <v>24</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="1"/>
@@ -8757,14 +8692,14 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
       <c r="P127" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S127" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="S127" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="T127" s="0" t="n">
         <f aca="false">R127-S127</f>
@@ -8779,23 +8714,23 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="1"/>
@@ -8828,20 +8763,22 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B129" s="1"/>
+        <v>569</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C129" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -8853,14 +8790,14 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
       <c r="P129" s="0" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="0" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="S129" s="0" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="T129" s="0" t="n">
         <f aca="false">R129-S129</f>
@@ -8875,23 +8812,23 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="1"/>
@@ -8902,14 +8839,14 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="0" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S130" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T130" s="0" t="n">
         <f aca="false">R130-S130</f>
@@ -8924,11 +8861,9 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
         <v>22</v>
       </c>
@@ -8937,10 +8872,10 @@
         <v>24</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="1"/>
@@ -8951,14 +8886,14 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="0" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="Q131" s="1"/>
       <c r="R131" s="0" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="S131" s="0" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="T131" s="0" t="n">
         <f aca="false">R131-S131</f>
@@ -8973,7 +8908,7 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
@@ -8984,10 +8919,10 @@
         <v>24</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H132" s="2"/>
       <c r="I132" s="1"/>
@@ -8998,14 +8933,14 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
       <c r="P132" s="0" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="Q132" s="1"/>
       <c r="R132" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S132" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T132" s="0" t="n">
         <f aca="false">R132-S132</f>
@@ -9020,11 +8955,9 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="B133" s="1"/>
       <c r="C133" s="1" t="s">
         <v>22</v>
       </c>
@@ -9033,10 +8966,10 @@
         <v>24</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H133" s="2"/>
       <c r="I133" s="1"/>
@@ -9047,14 +8980,14 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="0" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="Q133" s="1"/>
       <c r="R133" s="0" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="S133" s="0" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="T133" s="0" t="n">
         <f aca="false">R133-S133</f>
@@ -9069,7 +9002,7 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1" t="s">
@@ -9080,10 +9013,10 @@
         <v>24</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="1"/>
@@ -9094,14 +9027,14 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="0" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="0" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S134" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T134" s="0" t="n">
         <f aca="false">R134-S134</f>
@@ -9116,23 +9049,23 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="1"/>
@@ -9143,14 +9076,14 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="0" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S135" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T135" s="0" t="n">
         <f aca="false">R135-S135</f>
@@ -9165,23 +9098,23 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H136" s="2"/>
       <c r="I136" s="1"/>
@@ -9192,14 +9125,14 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="0" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S136" s="0" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="T136" s="0" t="n">
         <f aca="false">R136-S136</f>
@@ -9214,23 +9147,23 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="1"/>
@@ -9241,14 +9174,14 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="0" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S137" s="0" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="T137" s="0" t="n">
         <f aca="false">R137-S137</f>
@@ -9263,11 +9196,9 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
         <v>38</v>
       </c>
@@ -9276,10 +9207,10 @@
         <v>24</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="1"/>
@@ -9290,14 +9221,14 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="S138" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="S138" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="T138" s="0" t="n">
         <f aca="false">R138-S138</f>
@@ -9312,21 +9243,21 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="1"/>
@@ -9337,14 +9268,14 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S139" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T139" s="0" t="n">
         <f aca="false">R139-S139</f>
@@ -9359,23 +9290,23 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="1"/>
@@ -9386,14 +9317,14 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S140" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T140" s="0" t="n">
         <f aca="false">R140-S140</f>
@@ -9408,23 +9339,23 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="1"/>
@@ -9435,14 +9366,14 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="0" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S141" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="T141" s="0" t="n">
         <f aca="false">R141-S141</f>
@@ -9457,23 +9388,23 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="1"/>
@@ -9484,14 +9415,14 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S142" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T142" s="0" t="n">
         <f aca="false">R142-S142</f>
@@ -9506,23 +9437,23 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="1"/>
@@ -9533,14 +9464,14 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S143" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T143" s="0" t="n">
         <f aca="false">R143-S143</f>
@@ -9555,23 +9486,25 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B144" s="1"/>
+        <v>616</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C144" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H144" s="2"/>
       <c r="I144" s="1"/>
@@ -9582,14 +9515,14 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="0" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q144" s="1"/>
       <c r="R144" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S144" s="0" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T144" s="0" t="n">
         <f aca="false">R144-S144</f>
@@ -9604,23 +9537,23 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="1"/>
@@ -9631,14 +9564,14 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="0" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q145" s="1"/>
       <c r="R145" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S145" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T145" s="0" t="n">
         <f aca="false">R145-S145</f>
@@ -9653,23 +9586,23 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="1"/>
@@ -9680,14 +9613,14 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="0" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="Q146" s="1"/>
       <c r="R146" s="0" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="S146" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T146" s="0" t="n">
         <f aca="false">R146-S146</f>
@@ -9702,7 +9635,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
@@ -9715,13 +9648,13 @@
         <v>24</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="I147" s="3" t="n">
         <v>2</v>
@@ -9733,14 +9666,14 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S147" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T147" s="0" t="n">
         <f aca="false">R147-S147</f>
@@ -9755,26 +9688,26 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H148" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -9784,14 +9717,14 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="0" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S148" s="0" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="T148" s="0" t="n">
         <f aca="false">R148-S148</f>
@@ -9806,7 +9739,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>21</v>
@@ -9821,13 +9754,13 @@
         <v>24</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="I149" s="3" t="n">
         <v>3</v>
@@ -9839,14 +9772,14 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="0" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="0" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="S149" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T149" s="0" t="n">
         <f aca="false">R149-S149</f>
@@ -9861,24 +9794,24 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="8" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -9888,14 +9821,14 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S150" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T150" s="0" t="n">
         <f aca="false">R150-S150</f>
@@ -9910,25 +9843,23 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B151" s="1"/>
       <c r="C151" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="1"/>
@@ -9937,18 +9868,18 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O151" s="1"/>
       <c r="P151" s="0" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S151" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T151" s="0" t="n">
         <f aca="false">R151-S151</f>
@@ -9963,7 +9894,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>21</v>
@@ -9972,13 +9903,13 @@
         <v>22</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>26</v>
@@ -9986,24 +9917,24 @@
       <c r="H152" s="2"/>
       <c r="I152" s="1"/>
       <c r="J152" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="0" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S152" s="0" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="T152" s="0" t="n">
         <f aca="false">R152-S152</f>
@@ -10018,23 +9949,23 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="1"/>
@@ -10045,14 +9976,14 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="0" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S153" s="0" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="T153" s="0" t="n">
         <f aca="false">R153-S153</f>
@@ -10067,21 +9998,21 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="1"/>
@@ -10092,14 +10023,14 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="0" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="0" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="S154" s="0" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="T154" s="0" t="n">
         <f aca="false">R154-S154</f>
@@ -10114,23 +10045,23 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="E155" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F155" s="0" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="1"/>
@@ -10141,14 +10072,14 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="0" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S155" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T155" s="0" t="n">
         <f aca="false">R155-S155</f>
@@ -10163,23 +10094,23 @@
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="1"/>
@@ -10190,14 +10121,14 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="0" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S156" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T156" s="0" t="n">
         <f aca="false">R156-S156</f>
@@ -10212,23 +10143,23 @@
     </row>
     <row r="157" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="E157" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="1"/>
@@ -10239,14 +10170,14 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q157" s="1"/>
       <c r="R157" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S157" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T157" s="0" t="n">
         <f aca="false">R157-S157</f>
@@ -10261,23 +10192,23 @@
     </row>
     <row r="158" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="1"/>
@@ -10288,14 +10219,14 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q158" s="1"/>
       <c r="R158" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S158" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T158" s="0" t="n">
         <f aca="false">R158-S158</f>
@@ -10310,7 +10241,7 @@
     </row>
     <row r="159" customFormat="false" ht="27.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>21</v>
@@ -10319,16 +10250,16 @@
         <v>38</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H159" s="2"/>
       <c r="I159" s="1"/>
@@ -10339,14 +10270,14 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="0" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q159" s="1"/>
       <c r="R159" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S159" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="T159" s="0" t="n">
         <f aca="false">R159-S159</f>
@@ -10361,21 +10292,21 @@
     </row>
     <row r="160" customFormat="false" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H160" s="2"/>
       <c r="I160" s="1"/>
@@ -10386,14 +10317,14 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="0" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S160" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T160" s="0" t="n">
         <f aca="false">R160-S160</f>
@@ -10408,11 +10339,11 @@
     </row>
     <row r="161" customFormat="false" ht="26.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
@@ -10420,7 +10351,7 @@
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="1"/>
@@ -10431,14 +10362,14 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="0" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="0" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S161" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T161" s="0" t="n">
         <f aca="false">R161-S161</f>
@@ -10453,7 +10384,7 @@
     </row>
     <row r="162" customFormat="false" ht="51.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1" t="s">
@@ -10467,7 +10398,7 @@
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="1"/>
@@ -10480,14 +10411,14 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="0" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S162" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T162" s="0" t="n">
         <f aca="false">R162-S162</f>
@@ -10527,16 +10458,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="15.5101214574899"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="17.8259109311741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>15</v>
@@ -10544,13 +10475,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -10559,18 +10490,18 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>37</v>
@@ -10578,51 +10509,51 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
@@ -10630,18 +10561,18 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
@@ -10649,61 +10580,61 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -10730,12 +10661,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="15.5101214574899"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="17.8259109311741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
